--- a/branches/master/CodeSystem-cs-enrollment-type.xlsx
+++ b/branches/master/CodeSystem-cs-enrollment-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:22:00+00:00</t>
+    <t>2023-02-14T06:22:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
